--- a/Bags and Trucks/Log_MaBao.xlsx
+++ b/Bags and Trucks/Log_MaBao.xlsx
@@ -9,8 +9,10 @@
   <sheets>
     <sheet name="BT2-NCT" sheetId="1" r:id="rId1"/>
     <sheet name="BT2-NVC" sheetId="2" r:id="rId2"/>
+    <sheet name="BT2-MN" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BT2-NCT'!$A$1:$C$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BT2-NVC'!$A$1:$C$65</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -273,6 +275,129 @@
   </si>
   <si>
     <t>Mã đơn hàng: 206080327, 405257172, 494510746, 819425480, 932828321,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mã đơn hàng: 218957256, 279701530, 348453223, 352652866, 355232362, 360126870, 380540932, 402540859, 407237927, 428842659, 443405831, 454768935, 482879482, 491694997, 491899447, 991169972,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 819657279,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 213781831, 217316463, 244320880, 274107923, 294412398, 301753829, 303048090, 309833145, 311803707, 315554449, 335899734, 340640857, 345853987, 372131940, 380139453, 391221154, 393199443, 401108755, 406628653, 413832507, 416673631, 427328811, 436624071, 445643884, 462002225, 467342874, 467988360, 468273402, 468317200, 482836734, 496104905, 530120045, 566175537, 646483228, 684666475, 687401926, 722140518, 742985043, 793194529, 827976361, 839958494, 850601930, 906970739, 913725458, 983744548,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 829234288,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 396723786,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 462316169,</t>
+  </si>
+  <si>
+    <t>namnd38(15:45 04/01/20): COD T188008 - Nguyễn Duy Nam bỏ đơn 406678128 ra khỏi bao 151536494</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 332009500,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 456841987,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 465859237,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 455144956,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 326200209,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 227992865, 236966563, 282895694, 289727036, 292926480, 323641762, 335083653, 397842488, 417277857, 417840066, 420188555, 427363120, 433669681, 434756759, 435044696, 441057134, 442640309, 443094086, 448912665, 450187476, 453343035, 462666211, 478751038, 492943397, 519788697, 589937699, 599520702, 604057852, 663725559, 665781617, 723590190, 766477069, 771446472, 851418760, 955156303, 981020988,</t>
+  </si>
+  <si>
+    <t>namnd38(15:45 04/01/20): COD T188008 - Nguyễn Duy Nam bỏ đơn 351996494 ra khỏi bao 151539059</t>
+  </si>
+  <si>
+    <t>trietnlm2(15:45 04/01/20): COD T138612 - Nguyễn Lê Minh Triết bỏ đơn 380314102 ra khỏi bao 151539236</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 249896236, 387081131, 421793235, 428548522, 429029187, 462018824, 497091896, 537883158, 570250430, 714760821, 858744159, 870221696,</t>
+  </si>
+  <si>
+    <t>trietnlm2(15:45 04/01/20): COD T138612 - Nguyễn Lê Minh Triết bỏ đơn 201369781, 280177189, 293938721, 336836187, 345360961, 381328375, 427175673, 471724519, 484464617, 931622505, 993993683 ra khỏi bao 151540514</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 210181508, 225060856, 350046944, 362101685, 369228316, 386784965, 390513335, 411462486, 415573850, 418465688, 419362121, 428530381, 438473907, 490974370, 818967060,</t>
+  </si>
+  <si>
+    <t>namnd38(15:45 04/01/20): COD T188008 - Nguyễn Duy Nam bỏ đơn 232394948, 254186469, 311264137, 316609715, 320066310, 323032799, 326891469, 327453676, 400668787, 407746393, 419420535, 442638034, 485843082, 489888750, 653125073 ra khỏi bao 151541987</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 222701829, 224138071, 248918215, 298394769, 308304063, 347072365, 355932302, 394137828, 409206615, 449661183, 466722578, 503330350, 928227707,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 491072574,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 390287764,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 272852991,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 861989772,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 327473387,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 333143229,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 202747791, 237275833, 329458004, 338315021, 357948475, 361327279, 378823360, 393066589, 405637159, 420124299, 489829908, 496076312, 497944854, 498946491, 728596539, 835840944,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 205391414, 227458559, 233847574, 253679503, 256025977, 274102103, 276125799, 282140359, 291478997, 306350152, 333320803, 345499973, 350642369, 353529315, 354563642, 363552189, 392333231, 401421050, 429287900, 436342515, 445005076, 448747556, 457964328, 478371347, 483275812, 486984467, 492875636, 493420419, 494321477, 496227651, 568235241, 596178550, 618148316, 665251259, 736698664, 751037619, 796896892, 808673941, 877628195, 894213809, 904028377,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 247645367, 278943193, 315837039, 327412163, 342198960, 343352042, 344052730, 350943307, 364547042, 376265204, 380335430, 430644125, 459036906, 477321377, 525537396, 576260231, 884429292, 930232756, 931026778,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 210663887, 287392301, 331950838, 373320315, 378100727, 401807981, 413558695, 440771970, 487314193, 752775808,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 214491404, 230415440, 315149567, 326026827, 338125073, 354778305, 375982592, 430488342, 431004736, 434428580, 461839256, 640269998, 676746402, 778483866, 834020010, 850124859, 954823678,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 265515352, 316880327, 382212169, 407210600, 425408053, 437226195, 461164771, 480138067, 481573006, 501395839, 621870017, 767863860, 769705077,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 209750366, 222996819, 261943902, 274314770, 279751326, 302069191, 307385795, 312306045, 330405065, 394324758, 394685595, 397828106, 430087302, 434059081, 465709303, 469888690, 470587704, 498330084, 549804886, 570163969, 625693920, 767472113, 834015587, 844458638, 845295136, 861155680, 881628875, 898322540, 947664459,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 218036725, 224594452, 264021515, 269553269, 307692868, 315807306, 322798987, 324222403, 330555867, 334136017, 342844637, 353218178, 376931538, 384931783, 388570723, 421137842, 435052380, 437439547, 455578005, 479607355, 485227746, 487309105, 497677867, 499254376, 539874423, 606781259, 705475304, 721911987, 752615868, 753377893,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 908579589,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 726855617,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 259767950, 334360448, 755215554,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 293094055, 354187475, 354830398, 363778361, 368427499, 379309304, 384021835, 386132311, 386522075, 389782925, 430662916, 430856272, 492533791, 544138254, 603658128, 730534551, 810245250, 842396466, 882867052,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 923882217,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 211025186, 217712718, 300599521, 320031840, 332442418, 353757280, 355786573, 356124153, 376234133, 389229030, 395423622, 433566052, 442865019, 452038728, 460542690, 466523095, 466630435, 474660409, 481951867, 496420445, 843036495, 865059954, 887872028, 928786087,</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng: 282781652, 307534896, 311151843, 330801820, 332128254, 347640468, 368700970, 369434973, 373853061, 390973294, 391146976, 401181109, 408839219, 418060857, 425272260, 429377514, 446248464, 460670849, 478212569, 510457268, 604269665, 609699604, 658934419, 734456212, 813104001, 939080866, 968615424,</t>
   </si>
 </sst>
 </file>
@@ -896,6 +1021,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -909,12 +1040,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,8 +1363,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13725490196078" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1260,10 +1385,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B2" s="3">
         <v>0.375</v>
       </c>
       <c r="C2" t="s">
@@ -1271,10 +1396,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.375</v>
       </c>
       <c r="C3" t="s">
@@ -1282,10 +1407,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.375</v>
       </c>
       <c r="C4" t="s">
@@ -1293,10 +1418,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.375</v>
       </c>
       <c r="C5" t="s">
@@ -1304,10 +1429,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B6" s="3">
         <v>0.375</v>
       </c>
       <c r="C6" t="s">
@@ -1315,10 +1440,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B7" s="3">
         <v>0.375</v>
       </c>
       <c r="C7" t="s">
@@ -1326,10 +1451,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.375</v>
       </c>
       <c r="C8" t="s">
@@ -1337,10 +1462,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.375</v>
       </c>
       <c r="C9" t="s">
@@ -1348,10 +1473,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.375</v>
       </c>
       <c r="C10" t="s">
@@ -1359,10 +1484,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B11" s="3">
         <v>0.375</v>
       </c>
       <c r="C11" t="s">
@@ -1370,10 +1495,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B12" s="3">
         <v>0.375</v>
       </c>
       <c r="C12" t="s">
@@ -1381,10 +1506,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.375</v>
       </c>
       <c r="C13" t="s">
@@ -1392,10 +1517,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B14" s="3">
         <v>0.375</v>
       </c>
       <c r="C14" t="s">
@@ -1403,10 +1528,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B15" s="3">
         <v>0.375</v>
       </c>
       <c r="C15" t="s">
@@ -1414,10 +1539,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B16" s="3">
         <v>0.375</v>
       </c>
       <c r="C16" t="s">
@@ -1425,10 +1550,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B17" s="3">
         <v>0.375</v>
       </c>
       <c r="C17" t="s">
@@ -1436,10 +1561,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B18" s="3">
         <v>0.375</v>
       </c>
       <c r="C18" t="s">
@@ -1447,10 +1572,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B19" s="3">
         <v>0.375</v>
       </c>
       <c r="C19" t="s">
@@ -1458,10 +1583,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B20" s="3">
         <v>0.375</v>
       </c>
       <c r="C20" t="s">
@@ -1469,10 +1594,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7">
-        <v>43469</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="A21" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B21" s="3">
         <v>0.375</v>
       </c>
       <c r="C21" t="s">
@@ -1480,7 +1605,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7">
+      <c r="A22" s="2">
         <v>43469</v>
       </c>
       <c r="B22" t="s">
@@ -1491,7 +1616,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7">
+      <c r="A23" s="2">
         <v>43469</v>
       </c>
       <c r="B23" t="s">
@@ -1502,7 +1627,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <v>43469</v>
       </c>
       <c r="B24" t="s">
@@ -1513,7 +1638,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="7">
+      <c r="A25" s="2">
         <v>43469</v>
       </c>
       <c r="B25" t="s">
@@ -1524,7 +1649,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="7">
+      <c r="A26" s="2">
         <v>43469</v>
       </c>
       <c r="B26" t="s">
@@ -1535,7 +1660,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="7">
+      <c r="A27" s="2">
         <v>43469</v>
       </c>
       <c r="B27" t="s">
@@ -1546,7 +1671,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <v>43469</v>
       </c>
       <c r="B28" t="s">
@@ -1557,7 +1682,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7">
+      <c r="A29" s="2">
         <v>43469</v>
       </c>
       <c r="B29" t="s">
@@ -1568,7 +1693,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>43469</v>
       </c>
       <c r="B30" t="s">
@@ -1579,7 +1704,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7">
+      <c r="A31" s="2">
         <v>43469</v>
       </c>
       <c r="B31" t="s">
@@ -1590,7 +1715,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7">
+      <c r="A32" s="2">
         <v>43469</v>
       </c>
       <c r="B32" t="s">
@@ -1601,7 +1726,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7">
+      <c r="A33" s="2">
         <v>43469</v>
       </c>
       <c r="B33" t="s">
@@ -1612,7 +1737,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="7">
+      <c r="A34" s="2">
         <v>43469</v>
       </c>
       <c r="B34" t="s">
@@ -1623,6 +1748,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C34">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1634,9 +1762,9 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13725490196078" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1657,605 +1785,605 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B19" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="A20" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B20" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="A21" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B21" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B22" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="A23" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B23" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B24" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="A25" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B25" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="A26" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B26" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="A27" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B27" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B29" s="3">
+      <c r="A29" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B29" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="A30" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B30" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="A31" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B31" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B32" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="A33" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B33" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B34" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B35" s="5">
         <v>0.479166666666667</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B36" s="5">
         <v>0.479166666666667</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="A37" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B37" s="5">
         <v>0.479166666666667</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="A38" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B38" s="5">
         <v>0.479166666666667</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="A39" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B39" s="5">
         <v>0.479166666666667</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="A40" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B40" s="5">
         <v>0.479166666666667</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="A41" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B41" s="5">
         <v>0.479166666666667</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="A42" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B42" s="5">
         <v>0.479166666666667</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B43" s="3">
+      <c r="A43" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B43" s="5">
         <v>0.548611111111111</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B44" s="3">
+      <c r="A44" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B44" s="5">
         <v>0.548611111111111</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B45" s="3">
+      <c r="A45" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B45" s="5">
         <v>0.548611111111111</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B46" s="3">
+      <c r="A46" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B46" s="5">
         <v>0.548611111111111</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B47" s="3">
+      <c r="A47" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B47" s="5">
         <v>0.548611111111111</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B48" s="3">
+      <c r="A48" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B48" s="5">
         <v>0.548611111111111</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>43469</v>
-      </c>
-      <c r="B49" s="3">
+      <c r="A49" s="4">
+        <v>43469</v>
+      </c>
+      <c r="B49" s="5">
         <v>0.548611111111111</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="6"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C65">
@@ -2267,4 +2395,497 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.13725490196078" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.27450980392157"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>